--- a/outputs-r202/f__Fibrobacteraceae_train.xlsx
+++ b/outputs-r202/f__Fibrobacteraceae_train.xlsx
@@ -834,7 +834,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_12.fasta</t>
+          <t>GB_GCA_903876665.1_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -876,7 +876,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_14.fasta</t>
+          <t>GB_GCA_903876665.1_10.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -918,7 +918,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_18.fasta</t>
+          <t>GB_GCA_903876665.1_15.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -960,7 +960,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_4.fasta</t>
+          <t>GB_GCA_903876665.1_3.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1002,38 +1002,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_7.fasta</t>
+          <t>GB_GCA_903876665.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9999308565119569</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.914348788762835e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.220428993874649e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.9999308565119569</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1044,38 +1044,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_8.fasta</t>
+          <t>GB_GCA_903876665.1_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.1725746329825951</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1034281708771757</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.1034281708771756</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.1725746329825951</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_19.fasta</t>
+          <t>GB_GCA_903876665.1_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1128,7 +1128,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_2.fasta</t>
+          <t>GB_GCA_903876665.1_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1170,7 +1170,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_9.fasta</t>
+          <t>GB_GCA_903876665.1_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1212,38 +1212,38 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_11.fasta</t>
+          <t>GB_GCA_903876665.1_5.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1725746329825951</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1034281708771757</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1034281708771756</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1725746329825951</v>
+        <v>1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_13.fasta</t>
+          <t>GB_GCA_903876665.1_6.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1296,7 +1296,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_16.fasta</t>
+          <t>GB_GCA_903876665.1_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1338,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_17.fasta</t>
+          <t>GB_GCA_903876665.1_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1380,7 +1380,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_5.fasta</t>
+          <t>GB_GCA_903876665.1_9.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1422,7 +1422,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_6.fasta</t>
+          <t>GB_GCA_903876665.1_12.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1464,7 +1464,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_0.fasta</t>
+          <t>GB_GCA_903876665.1_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1506,7 +1506,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_1.fasta</t>
+          <t>GB_GCA_903876665.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1548,7 +1548,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_10.fasta</t>
+          <t>GB_GCA_903876665.1_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1590,7 +1590,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_15.fasta</t>
+          <t>GB_GCA_903876665.1_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1632,7 +1632,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903876665.1_3.fasta</t>
+          <t>GB_GCA_903876665.1_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2053,34 +2053,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9999999999997956</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.887536055276293e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.9999999999997956</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_10.fasta</t>
+          <t>GB_GCA_012515825.1_14.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2133,7 +2133,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_12.fasta</t>
+          <t>GB_GCA_012515825.1_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2175,7 +2175,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_1.fasta</t>
+          <t>GB_GCA_012841225.1_13.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2217,7 +2217,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_10.fasta</t>
+          <t>GB_GCA_012841225.1_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2259,38 +2259,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_15.fasta</t>
+          <t>GB_GCA_012841225.1_4.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.0894092028260049</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.2146301704972121</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0894092028260049</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.08940920282600491</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.08940920282600494</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.08940920282600488</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.1595054097207537</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.0894092028260049</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.0894092028260049</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.2146301704972121</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2301,38 +2301,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_19.fasta</t>
+          <t>GB_GCA_001462345.1_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.999843659116177</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0001563408836676749</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.220407495029726e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.999843659116177</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2343,38 +2343,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_6.fasta</t>
+          <t>GB_GCA_001462345.1_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9998743916264416</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.0001256083734028617</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.22041507099496e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.9998743916264416</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2385,38 +2385,38 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_16.fasta</t>
+          <t>GB_GCA_001462345.1_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9996676198333694</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.0003323801664752368</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.220364125276049e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.9996676198333694</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2427,38 +2427,38 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_0.fasta</t>
+          <t>GB_GCA_001462345.1_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.9997468684545514</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.0002531315452930857</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.22038364376142e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.9997468684545514</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2469,38 +2469,38 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_16.fasta</t>
+          <t>GB_GCA_012515825.1_4.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.9552105462804286</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.04477682836501184</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.262535442648244e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.219867958262539e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.9552105462804286</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2511,38 +2511,38 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_18.fasta</t>
+          <t>GB_GCA_012841225.1_10.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.9990609269431445</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.0009390730567000852</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.220215000143739e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.9990609269431445</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_8.fasta</t>
+          <t>GB_GCA_012841225.1_6.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2595,7 +2595,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_0.fasta</t>
+          <t>GB_GCA_001462345.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2637,7 +2637,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_16.fasta</t>
+          <t>GB_GCA_001462345.1_16.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2679,7 +2679,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_17.fasta</t>
+          <t>GB_GCA_001462345.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2721,7 +2721,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_2.fasta</t>
+          <t>GB_GCA_001462345.1_8.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2763,7 +2763,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_12.fasta</t>
+          <t>GB_GCA_012515825.1_0.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2805,7 +2805,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_5.fasta</t>
+          <t>GB_GCA_012515825.1_16.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2847,7 +2847,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_6.fasta</t>
+          <t>GB_GCA_012515825.1_17.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2889,7 +2889,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_1.fasta</t>
+          <t>GB_GCA_012515825.1_2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2931,7 +2931,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_13.fasta</t>
+          <t>GB_GCA_012841225.1_12.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2973,7 +2973,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_14.fasta</t>
+          <t>GB_GCA_012841225.1_5.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3015,7 +3015,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462345.1_9.fasta</t>
+          <t>GB_GCA_001462345.1_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3057,38 +3057,38 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_4.fasta</t>
+          <t>GB_GCA_001462345.1_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9555553800715852</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04444461992825922</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.220003350176426e-14</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9555553800715852</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_10.fasta</t>
+          <t>GB_GCA_012515825.1_1.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3141,7 +3141,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_14.fasta</t>
+          <t>GB_GCA_012515825.1_10.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3183,7 +3183,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515825.1_18.fasta</t>
+          <t>GB_GCA_012515825.1_15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3225,7 +3225,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_13.fasta</t>
+          <t>GB_GCA_012515825.1_19.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3267,7 +3267,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_15.fasta</t>
+          <t>GB_GCA_012515825.1_6.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3309,38 +3309,38 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012841225.1_4.fasta</t>
+          <t>GB_GCA_012841225.1_16.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0894092028260049</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2146301704972121</v>
+        <v>0.9999999999997956</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0894092028260049</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08940920282600491</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08940920282600494</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08940920282600488</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1595054097207537</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0894092028260049</v>
+        <v>4.887536055276293e-14</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0894092028260049</v>
+        <v>2.220446049250223e-14</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2146301704972121</v>
+        <v>0.9999999999997956</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002394865.1_13.fasta</t>
+          <t>GB_GCA_900313675.1_19.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3642,7 +3642,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002210425.1_12.fasta</t>
+          <t>RS_GCF_000146505.1_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3684,38 +3684,38 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900177705.1_18.fasta</t>
+          <t>RS_GCF_900142475.1_12.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9283985155698313</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.07160148443001341</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9283985155698313</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902800815.1_17.fasta</t>
+          <t>RS_GCF_902756345.1_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3768,7 +3768,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002391195.1_13.fasta</t>
+          <t>RS_GCF_902761355.1_19.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3810,38 +3810,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002210285.1_1.fasta</t>
+          <t>RS_GCF_902762305.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9283985155698313</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.07160148443001341</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.220032585315619e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9283985155698313</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -3852,38 +3852,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902762795.1_16.fasta</t>
+          <t>GB_GCA_900316465.1_16.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08884018537018283</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08884018537018283</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2091151962741353</v>
+        <v>0.9999991978706564</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08884018537018283</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08884018537018283</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08884018537018283</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08884018537018278</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08884018537018278</v>
+        <v>8.021291881803323e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.169003506134585</v>
+        <v>2.220445851352412e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2091151962741353</v>
+        <v>0.9999991978706564</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -3894,38 +3894,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902767785.1_3.fasta</t>
+          <t>RS_GCF_002210425.1_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9998330786877806</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0001669213120640467</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.220404887130887e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9998330786877806</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -3936,38 +3936,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902794535.1_6.fasta</t>
+          <t>RS_GCF_900142535.1_1.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9999938764198557</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.12357998891412e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.220444538490701e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9999938764198557</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -3978,38 +3978,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902800345.1_8.fasta</t>
+          <t>RS_GCF_902767785.1_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.410460530745725e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.410460530745725e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4999999999996705</v>
+        <v>0.9999979724390019</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4999999999996705</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>9.410460530745723e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>9.410460530745723e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>9.410460530745723e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>9.410460530745723e-14</v>
+        <v>2.027560842542496e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>9.410460530745723e-14</v>
+        <v>2.220445549021035e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4999999999996705</v>
+        <v>0.9999979724390019</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -4020,38 +4020,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900313675.1_10.fasta</t>
+          <t>RS_GCF_902800815.1_12.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9877777955325436</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.01222220446730095</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.219970604786794e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.9877777955325436</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -4062,38 +4062,38 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002210285.1_16.fasta</t>
+          <t>RS_GCF_902800815.1_15.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9999903794362484</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.620563596284916e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.220443675767769e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.9999903794362484</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900142535.1_12.fasta</t>
+          <t>GB_GCA_900313675.1_10.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4146,7 +4146,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900143055.1_10.fasta</t>
+          <t>RS_GCF_002210285.1_16.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4188,38 +4188,38 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902761355.1_5.fasta</t>
+          <t>RS_GCF_900142535.1_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03901575247368185</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9609842475261628</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.219996346292328e-14</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9609842475261628</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902767785.1_2.fasta</t>
+          <t>RS_GCF_900143055.1_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4272,38 +4272,38 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902768715.1_18.fasta</t>
+          <t>RS_GCF_902761355.1_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.03901575247368185</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9609842475261628</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.219996346292328e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.9609842475261628</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902781185.1_7.fasta</t>
+          <t>RS_GCF_902767785.1_2.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4356,7 +4356,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900316465.1_16.fasta</t>
+          <t>RS_GCF_902768715.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4398,7 +4398,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002210425.1_15.fasta</t>
+          <t>RS_GCF_902781185.1_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4440,7 +4440,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900142535.1_1.fasta</t>
+          <t>GB_GCA_002391195.1_13.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4482,7 +4482,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902767785.1_1.fasta</t>
+          <t>RS_GCF_002210285.1_1.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4524,38 +4524,38 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902800815.1_12.fasta</t>
+          <t>RS_GCF_902762795.1_16.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.08884018537018283</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.08884018537018283</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.2091151962741353</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.08884018537018283</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.08884018537018283</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.08884018537018283</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.08884018537018278</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.08884018537018278</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.169003506134585</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.2091151962741353</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902800815.1_15.fasta</t>
+          <t>RS_GCF_902767785.1_3.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4608,7 +4608,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900313675.1_19.fasta</t>
+          <t>RS_GCF_902794535.1_6.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4650,7 +4650,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000146505.1_1.fasta</t>
+          <t>RS_GCF_902800345.1_8.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4692,38 +4692,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900142475.1_12.fasta</t>
+          <t>GB_GCA_002394865.1_13.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9283985155698313</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07160148443001341</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.220032585315619e-14</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9283985155698313</v>
+        <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902756345.1_5.fasta</t>
+          <t>RS_GCF_002210425.1_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4776,7 +4776,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902761355.1_19.fasta</t>
+          <t>RS_GCF_900177705.1_18.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4818,7 +4818,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902762305.1_13.fasta</t>
+          <t>RS_GCF_902800815.1_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4987,34 +4987,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.534782771981918e-13</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>6.534782771981918e-13</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>6.534782771981917e-13</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4936819549833801</v>
+        <v>0.4936819549833799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5063180450120456</v>
+        <v>0.5063180450120457</v>
       </c>
       <c r="G3" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>6.534782771982349e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>6.534782771981909e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5063180450120456</v>
+        <v>0.5063180450120457</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -5113,34 +5113,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9999999999996909</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.537631532974425e-13</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.9999999999996909</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -5155,34 +5155,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9999999999997307</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.140098411747126e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9999999999997307</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_14.fasta</t>
+          <t>RS_GCF_002797675.1_12.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5235,49 +5235,49 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_13.fasta</t>
+          <t>RS_GCF_002797675.1_2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.534782771981918e-13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.534782771981918e-13</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.534782771981917e-13</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4936819549833801</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5063180450120456</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.534782771981919e-13</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5063180450120456</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>g__Fibromonas</t>
+          <t>g__Fibrobacter_A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_19.fasta</t>
+          <t>RS_GCF_003003115.1_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5319,7 +5319,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_1.fasta</t>
+          <t>RS_GCF_900167415.1_11.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5361,38 +5361,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_4.fasta</t>
+          <t>GB_GCA_002390045.1_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.999989259143837</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.074085600765779e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.220443399389889e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.999989259143837</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -5403,38 +5403,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_7.fasta</t>
+          <t>GB_GCA_002390045.1_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.9999831750031201</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.682499672456358e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.220441898454492e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9999831750031201</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -5445,38 +5445,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_13.fasta</t>
+          <t>RS_GCF_002797675.1_7.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.9999973941393296</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.605860514991332e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.220445406347053e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9999973941393296</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -5487,38 +5487,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_18.fasta</t>
+          <t>RS_GCF_003003115.1_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.9996963067345267</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0003036932653178655</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.22037118965172e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.9996963067345267</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -5529,38 +5529,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_2.fasta</t>
+          <t>RS_GCF_003003115.1_8.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.9997936427327919</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.0002063572670526221</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.220395168248114e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.9997936427327919</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_0.fasta</t>
+          <t>GB_GCA_002390045.1_0.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5613,7 +5613,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_12.fasta</t>
+          <t>GB_GCA_002390045.1_3.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5655,7 +5655,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_9.fasta</t>
+          <t>GB_GCA_002390045.1_5.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5697,49 +5697,49 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_0.fasta</t>
+          <t>RS_GCF_002797675.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.165689810588668e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.165689810588668e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.5035232163639665</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.4964767836317174</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.165689810588675e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.165689810588669e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.165689810588669e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.165689810588669e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>6.165689810588671e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.5035232163639665</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>g__Fibrobacter_A</t>
+          <t>g__Fibrobacter</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_3.fasta</t>
+          <t>RS_GCF_002797675.1_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5781,7 +5781,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_5.fasta</t>
+          <t>RS_GCF_002797675.1_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5823,49 +5823,49 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_19.fasta</t>
+          <t>RS_GCF_003003115.1_7.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.165689810588668e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.165689810588668e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5035232163639665</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4964767836317174</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>6.165689810588675e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.165689810588669e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.165689810588669e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.165689810588669e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.165689810588671e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5035232163639665</v>
+        <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>g__Fibrobacter</t>
+          <t>g__Fibrobacter_A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_4.fasta</t>
+          <t>RS_GCF_900167415.1_13.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5907,7 +5907,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_5.fasta</t>
+          <t>RS_GCF_900167415.1_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5949,7 +5949,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_7.fasta</t>
+          <t>GB_GCA_002390045.1_13.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5991,7 +5991,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_13.fasta</t>
+          <t>GB_GCA_002390045.1_18.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6033,7 +6033,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_6.fasta</t>
+          <t>RS_GCF_003003115.1_2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6075,7 +6075,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_10.fasta</t>
+          <t>RS_GCF_900167415.1_0.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6117,7 +6117,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002390045.1_15.fasta</t>
+          <t>RS_GCF_900167415.1_12.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -6159,7 +6159,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_7.fasta</t>
+          <t>RS_GCF_900167415.1_9.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6201,7 +6201,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_10.fasta</t>
+          <t>GB_GCA_002390045.1_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6243,49 +6243,49 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_8.fasta</t>
+          <t>RS_GCF_003003115.1_13.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.4936819549833799</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.5063180450120457</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.534782771981908e-13</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.534782771982349e-13</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.534782771981909e-13</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.5063180450120457</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>g__Fibrobacter_A</t>
+          <t>g__Fibromonas</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_12.fasta</t>
+          <t>RS_GCF_003003115.1_19.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6327,7 +6327,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002797675.1_2.fasta</t>
+          <t>RS_GCF_900167415.1_1.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6369,38 +6369,38 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003003115.1_16.fasta</t>
+          <t>RS_GCF_900167415.1_4.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.9999999999996909</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.537631532974425e-13</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.220446049250198e-14</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.9999999999996909</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -6411,38 +6411,38 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900167415.1_11.fasta</t>
+          <t>RS_GCF_900167415.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.9999999999997307</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.140098411747126e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.220446049250208e-14</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.9999999999997307</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -6538,34 +6538,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9999999999971665</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.677974330053451e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.9999999999971665</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -6580,34 +6580,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999594054</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.043926079189583e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9999999999594054</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -6664,34 +6664,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9999999999957988</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.045818416577517e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9999999999957988</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_1.fasta</t>
+          <t>GB_GCA_001462225.1_19.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6744,7 +6744,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_17.fasta</t>
+          <t>GB_GCA_009777135.1_11.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6786,7 +6786,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462235.1_6.fasta</t>
+          <t>GB_GCA_009777135.1_14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6828,7 +6828,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_6.fasta</t>
+          <t>GB_GCA_009777135.1_17.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6870,7 +6870,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462235.1_17.fasta</t>
+          <t>GB_GCA_009787645.1_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6912,7 +6912,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462235.1_5.fasta</t>
+          <t>GB_GCA_009787645.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6954,7 +6954,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462245.1_14.fasta</t>
+          <t>GB_GCA_009788135.1_12.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6996,7 +6996,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_8.fasta</t>
+          <t>GB_GCA_009788135.1_2.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7038,38 +7038,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462245.1_19.fasta</t>
+          <t>GB_GCA_001462225.1_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9967333766297515</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.003266623370093245</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.219959927819289e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9967333766297515</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -7080,38 +7080,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_19.fasta</t>
+          <t>GB_GCA_001462225.1_12.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09674315640834502</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09674315640834502</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09674315640834509</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09674315640834506</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2260547487332398</v>
+        <v>0.9986475549135642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09674315640834502</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09674315640834502</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09674315640834502</v>
+        <v>0.001352445086280441</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09674315640834506</v>
+        <v>2.220113697146248e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2260547487332398</v>
+        <v>0.9986475549135642</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -7122,38 +7122,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_10.fasta</t>
+          <t>GB_GCA_001462225.1_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.9989827884273644</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.001017211572480168</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.220195832255247e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.9989827884273644</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -7164,38 +7164,38 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_9.fasta</t>
+          <t>GB_GCA_001462245.1_16.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.9977992413743731</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.002200758625471394</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.21995892599809e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.9977992413743731</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -7206,38 +7206,38 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_10.fasta</t>
+          <t>GB_GCA_001462245.1_3.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.9951518641119405</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.004848135887904049</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.219961188441356e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.9951518641119405</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -7248,38 +7248,38 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_12.fasta</t>
+          <t>GB_GCA_009777135.1_16.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.9997061686884349</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.0002938313114097372</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.220373618509598e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.9997061686884349</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -7290,38 +7290,38 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_3.fasta</t>
+          <t>GB_GCA_009777135.1_4.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.9996316304192433</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.0003683695806013174</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.22035526427625e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.9996316304192433</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -7332,38 +7332,38 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462245.1_16.fasta</t>
+          <t>GB_GCA_009787645.1_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.9985806851671923</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.001419314832652227</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.220097332857264e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.9985806851671923</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -7374,38 +7374,38 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462245.1_3.fasta</t>
+          <t>GB_GCA_009788135.1_16.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.997787745718802</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.002212254281042556</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.219958667811006e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.997787745718802</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -7416,38 +7416,38 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_16.fasta</t>
+          <t>GB_GCA_009788135.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0.9983025108267952</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.001697489173049455</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.220029327516045e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.9983025108267952</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_4.fasta</t>
+          <t>GB_GCA_001462245.1_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7500,38 +7500,38 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_14.fasta</t>
+          <t>GB_GCA_009777135.1_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.09674315640834502</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.09674315640834502</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.09674315640834509</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.09674315640834506</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.2260547487332398</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.09674315640834502</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.09674315640834502</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.09674315640834502</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.09674315640834506</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.2260547487332398</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009788135.1_16.fasta</t>
+          <t>GB_GCA_009787645.1_10.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7584,7 +7584,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009788135.1_17.fasta</t>
+          <t>GB_GCA_009787645.1_9.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7626,7 +7626,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001462225.1_19.fasta</t>
+          <t>GB_GCA_001462235.1_17.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7668,7 +7668,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_11.fasta</t>
+          <t>GB_GCA_001462235.1_5.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7710,7 +7710,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_14.fasta</t>
+          <t>GB_GCA_001462245.1_14.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -7752,7 +7752,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009777135.1_17.fasta</t>
+          <t>GB_GCA_009777135.1_8.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7794,38 +7794,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_11.fasta</t>
+          <t>GB_GCA_001462225.1_1.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.9999999999971665</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.677974330053451e-12</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.220446049249575e-14</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.9999999999971665</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -7836,38 +7836,38 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009787645.1_13.fasta</t>
+          <t>GB_GCA_001462225.1_17.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.9999999999594054</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.043926079189583e-11</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.220446049240259e-14</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.9999999999594054</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009788135.1_12.fasta</t>
+          <t>GB_GCA_001462235.1_6.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7920,38 +7920,38 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_009788135.1_2.fasta</t>
+          <t>GB_GCA_009787645.1_6.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0.9999999999957988</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.045818416577517e-12</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.220446049249238e-14</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.9999999999957988</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_0.fasta</t>
+          <t>GB_GCA_012523035.1_10.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8253,7 +8253,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_14.fasta</t>
+          <t>GB_GCA_012523035.1_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8295,7 +8295,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_5.fasta</t>
+          <t>GB_GCA_012523035.1_17.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8337,7 +8337,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_7.fasta</t>
+          <t>GB_GCA_012523035.1_3.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8379,7 +8379,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_1.fasta</t>
+          <t>GB_GCA_012523035.1_8.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8421,38 +8421,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_15.fasta</t>
+          <t>GB_GCA_012523035.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9999828134503089</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.718654953556366e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9999828134503089</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -8463,38 +8463,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_4.fasta</t>
+          <t>GB_GCA_012523035.1_16.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9999796933232346</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.030667661004309e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.22044103956072e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.9999796933232346</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -8505,38 +8505,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_11.fasta</t>
+          <t>GB_GCA_012523035.1_19.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9999828134503089</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.718654953556366e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.220441809262407e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9999828134503089</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -8547,49 +8547,49 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_18.fasta</t>
+          <t>GB_GCA_012523035.1_2.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5.362670010806686e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.4232708180147911</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.36267001080669e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.362670010806689e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.362670010806689e-10</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.3829231963106178</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.362670010806687e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.193805982456989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.362670010806685e-10</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.4232708180147911</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>g__JAAYJH01</t>
+          <t>g__Fibro-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_6.fasta</t>
+          <t>GB_GCA_012523035.1_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8631,7 +8631,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_9.fasta</t>
+          <t>GB_GCA_012523035.1_18.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8673,7 +8673,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_13.fasta</t>
+          <t>GB_GCA_012523035.1_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8715,7 +8715,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_16.fasta</t>
+          <t>GB_GCA_012523035.1_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8757,7 +8757,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_19.fasta</t>
+          <t>GB_GCA_012523035.1_1.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -8799,49 +8799,49 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_2.fasta</t>
+          <t>GB_GCA_012523035.1_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08884018537018291</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2091151962741352</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0888401853701829</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08884018537018286</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08884018537018286</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1690035061345846</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08884018537018286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08884018537018282</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08884018537018286</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2091151962741352</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>g__Fibro-01</t>
+          <t>g__JAAYJH01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_10.fasta</t>
+          <t>GB_GCA_012523035.1_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8883,7 +8883,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_12.fasta</t>
+          <t>GB_GCA_012523035.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8925,7 +8925,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_17.fasta</t>
+          <t>GB_GCA_012523035.1_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8967,7 +8967,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_3.fasta</t>
+          <t>GB_GCA_012523035.1_5.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9009,7 +9009,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012523035.1_8.fasta</t>
+          <t>GB_GCA_012523035.1_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9136,34 +9136,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9999999999995386</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.060122368704724e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.9999999999995386</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -9178,34 +9178,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9999999999993467</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.977787675237988e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9999999999993467</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_14.fasta</t>
+          <t>GB_GCA_012511955.1_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9258,7 +9258,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_17.fasta</t>
+          <t>GB_GCA_012511955.1_10.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9300,7 +9300,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_1.fasta</t>
+          <t>GB_GCA_012511955.1_3.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9342,7 +9342,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_15.fasta</t>
+          <t>GB_GCA_012511955.1_5.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9384,7 +9384,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_19.fasta</t>
+          <t>GB_GCA_012511955.1_6.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9426,7 +9426,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_7.fasta</t>
+          <t>GB_GCA_012511955.1_8.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9468,38 +9468,38 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_12.fasta</t>
+          <t>GB_GCA_012511955.1_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.996383210369601</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.003616789630243645</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.219960301619913e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.996383210369601</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -9510,38 +9510,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_18.fasta</t>
+          <t>GB_GCA_012511955.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9985350539817557</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.001464946018088898</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.220086169744466e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9985350539817557</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -9552,38 +9552,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_4.fasta</t>
+          <t>GB_GCA_012511955.1_16.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.997279970831633</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.002720029168211561</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.219959581176932e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.997279970831633</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -9594,38 +9594,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_9.fasta</t>
+          <t>GB_GCA_012511955.1_2.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9976045932803584</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0023954067194861</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.219958923255197e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9976045932803584</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_11.fasta</t>
+          <t>GB_GCA_012511955.1_12.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -9678,7 +9678,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_13.fasta</t>
+          <t>GB_GCA_012511955.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -9720,7 +9720,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_16.fasta</t>
+          <t>GB_GCA_012511955.1_4.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9762,7 +9762,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_2.fasta</t>
+          <t>GB_GCA_012511955.1_9.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9804,7 +9804,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_0.fasta</t>
+          <t>GB_GCA_012511955.1_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -9846,7 +9846,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_10.fasta</t>
+          <t>GB_GCA_012511955.1_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -9888,7 +9888,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_3.fasta</t>
+          <t>GB_GCA_012511955.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -9930,7 +9930,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_5.fasta</t>
+          <t>GB_GCA_012511955.1_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -9972,38 +9972,38 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_6.fasta</t>
+          <t>GB_GCA_012511955.1_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.9999999999995386</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.060122368704724e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.220446049250161e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.9999999999995386</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -10014,38 +10014,38 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012511955.1_8.fasta</t>
+          <t>GB_GCA_012511955.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.9999999999993467</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.977787675237988e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.220446049250113e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.9999999999993467</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -10141,34 +10141,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0091690084959731</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0091690084959731</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.009169008495973151</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.009169008495973142</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.9266479320322146</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.009169008495973428</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.9266479320322146</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -10183,34 +10183,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.0151813075585416</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.01518130755854159</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01518130755854164</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.01518130755854164</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.8785495395316666</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.01518130755854197</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8785495395316666</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -10225,34 +10225,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.002232819381293102</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.002232819381293102</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.002232819381293112</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.002232819381293113</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.9821374449496549</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.002232819381293123</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.9821374449496549</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -10267,34 +10267,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.002128040303345134</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.002128040303345131</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.002128040303345153</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.002128040303345164</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9829756775732387</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.002128040303345343</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9829756775732387</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -10309,34 +10309,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.002557729932267456</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.002557729932267455</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.00255772993226748</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.002557729932267488</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.97953816054186</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.002557729932267694</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.97953816054186</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -10351,34 +10351,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.00199970615850913</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.001999706158509118</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.001999706158509137</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.00199970615850914</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.9840023507319265</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.001999706158509323</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9840023507319265</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -10393,34 +10393,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.004067760146771922</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.004067760146771922</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.004067760146771949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.004067760146771959</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.9674579188258243</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.004067760146772183</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9674579188258243</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -10435,34 +10435,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.006672901871334116</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.006672901871334115</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.00667290187133414</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.00667290187133414</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.946616785029327</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.006672901871334152</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.946616785029327</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_0.fasta</t>
+          <t>GB_GCA_001873075.1_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -10515,7 +10515,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_10.fasta</t>
+          <t>GB_GCA_001873075.1_19.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10557,7 +10557,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_12.fasta</t>
+          <t>GB_GCA_002307115.1_6.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10599,7 +10599,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_18.fasta</t>
+          <t>GB_GCA_002307115.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -10641,38 +10641,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_8.fasta</t>
+          <t>GB_GCA_001873075.1_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.009949292482733345</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.009949292482733345</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.009949292482733345</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.009949292482733336</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.009949292482733336</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.009949292482733345</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.009949292482733347</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.9204056601381329</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.009949292482733669</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9204056601381329</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -10683,38 +10683,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_13.fasta</t>
+          <t>GB_GCA_001873075.1_14.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.01108434802131131</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.01108434802131131</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01108434802131131</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.01108434802131127</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.01108434802131127</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.01108434802131131</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.01108434802131131</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.9113252158295096</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0110843480213113</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.9113252158295096</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -10725,38 +10725,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_18.fasta</t>
+          <t>GB_GCA_001873075.1_2.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01002174250813023</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01002174250813023</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.01002174250813021</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.01002174250813018</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.01002174250813017</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01002174250813025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01002174250813025</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.919826059934958</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.01002174250813052</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.919826059934958</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -10767,38 +10767,38 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_9.fasta</t>
+          <t>GB_GCA_001873075.1_9.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01029262530861687</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01029262530861687</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.01029262530861687</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.01029262530861684</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.01029262530861684</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01029262530861689</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.01029262530861689</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.9176589975310647</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.01029262530861715</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.9176589975310647</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -10809,38 +10809,38 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_17.fasta</t>
+          <t>GB_GCA_002307115.1_14.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.01312879691932388</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.01312879691932388</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.894969624645409</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.0131287969193239</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.894969624645409</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -10851,38 +10851,38 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_3.fasta</t>
+          <t>GB_GCA_002307115.1_16.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01177977445517365</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01177977445517365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.01177977445517365</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.01177977445517364</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.01177977445517364</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01177977445517367</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01177977445517367</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.9057618043586104</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.01177977445517397</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.9057618043586104</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -10893,38 +10893,38 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_4.fasta</t>
+          <t>GB_GCA_002307115.1_8.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.01433289046409586</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01433289046409586</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.01433289046409586</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.01433289046409582</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.01433289046409582</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01433289046409587</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.01433289046409586</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.8853368762872331</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.01433289046409588</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.8853368762872331</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_7.fasta</t>
+          <t>GB_GCA_001873075.1_6.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10977,7 +10977,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_0.fasta</t>
+          <t>GB_GCA_002307115.1_10.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11019,38 +11019,38 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_1.fasta</t>
+          <t>GB_GCA_002307115.1_11.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0973033504724735</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.0973033504724735</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.0973033504724735</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.09730335047247353</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.09730335047247353</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.09730335047247356</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.09730335047247356</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0.2215731962202118</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.09730335047247354</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.2215731962202118</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_6.fasta</t>
+          <t>GB_GCA_002307115.1_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -11103,7 +11103,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_10.fasta</t>
+          <t>GB_GCA_002307115.1_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -11145,38 +11145,38 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_11.fasta</t>
+          <t>GB_GCA_001873075.1_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0973033504724735</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0973033504724735</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0973033504724735</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09730335047247353</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09730335047247353</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09730335047247356</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09730335047247356</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2215731962202118</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09730335047247354</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2215731962202118</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_19.fasta</t>
+          <t>GB_GCA_001873075.1_3.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -11229,7 +11229,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_4.fasta</t>
+          <t>GB_GCA_001873075.1_4.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -11271,7 +11271,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_13.fasta</t>
+          <t>GB_GCA_001873075.1_7.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -11313,7 +11313,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_14.fasta</t>
+          <t>GB_GCA_002307115.1_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11355,7 +11355,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_2.fasta</t>
+          <t>GB_GCA_002307115.1_1.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -11397,38 +11397,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_9.fasta</t>
+          <t>GB_GCA_001873075.1_0.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.009169008495973139</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.0091690084959731</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0091690084959731</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.009169008495973151</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.009169008495973142</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.9266479320322146</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.009169008495973428</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.9266479320322146</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -11439,38 +11439,38 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_14.fasta</t>
+          <t>GB_GCA_001873075.1_10.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.01518130755854163</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.0151813075585416</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.01518130755854159</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.01518130755854164</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.01518130755854164</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.8785495395316666</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.01518130755854197</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.8785495395316666</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -11481,38 +11481,38 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_16.fasta</t>
+          <t>GB_GCA_001873075.1_12.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.002232819381293109</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.002232819381293102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.002232819381293102</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.002232819381293112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.002232819381293113</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0.9821374449496549</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.002232819381293123</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.9821374449496549</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -11523,38 +11523,38 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_8.fasta</t>
+          <t>GB_GCA_001873075.1_18.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.002128040303345144</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.002128040303345134</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.002128040303345131</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.002128040303345153</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.002128040303345164</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.9829756775732387</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.002128040303345343</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.9829756775732387</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -11565,38 +11565,38 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_1.fasta</t>
+          <t>GB_GCA_001873075.1_8.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.00255772993226747</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.002557729932267456</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.002557729932267455</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.00255772993226748</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.002557729932267488</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0.97953816054186</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.002557729932267694</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.97953816054186</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -11607,38 +11607,38 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001873075.1_19.fasta</t>
+          <t>GB_GCA_002307115.1_13.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.001999706158509132</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.00199970615850913</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.001999706158509118</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.001999706158509137</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.00199970615850914</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0.9840023507319265</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.001999706158509323</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.9840023507319265</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -11649,38 +11649,38 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_6.fasta</t>
+          <t>GB_GCA_002307115.1_18.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.004067760146771937</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.004067760146771922</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.004067760146771922</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.004067760146771949</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.004067760146771959</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0.9674579188258243</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.004067760146772183</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.9674579188258243</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -11691,38 +11691,38 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002307115.1_7.fasta</t>
+          <t>GB_GCA_002307115.1_9.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.006672901871334133</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.006672901871334116</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.006672901871334115</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.00667290187133414</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.00667290187133414</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0.946616785029327</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.006672901871334152</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.946616785029327</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -11818,34 +11818,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.268896951232735e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9999999999993178</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.9999999999993178</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -11860,34 +11860,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913097</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07697669335913099</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.1960239255085531</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1814426530010591</v>
+        <v>0.2651392209775306</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1814426530010591</v>
+        <v>0.2651392209775306</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -11902,34 +11902,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398392</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398404</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.07742310459398404</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1023196683748676</v>
+        <v>0.1965043103433705</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1814426530010591</v>
+        <v>0.2615339574987418</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1814426530010591</v>
+        <v>0.2615339574987418</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_1.fasta</t>
+          <t>GB_GCA_002314675.1_11.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12024,38 +12024,38 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_12.fasta</t>
+          <t>GB_GCA_002314675.1_15.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1814426530010591</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1814426530010591</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -12066,38 +12066,38 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_3.fasta</t>
+          <t>GB_GCA_002314675.1_16.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1023196683748676</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1814426530010591</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1814426530010591</v>
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_6.fasta</t>
+          <t>GB_GCA_002314675.1_19.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12150,38 +12150,38 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_10.fasta</t>
+          <t>GB_GCA_002314675.1_17.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.219959862927766e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.002834260715649579</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9971657392841951</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.9971657392841951</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -12192,38 +12192,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_13.fasta</t>
+          <t>GB_GCA_002314675.1_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.2200484443739e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.001619245976232908</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.9983807540236117</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9983807540236117</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -12234,38 +12234,38 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_2.fasta</t>
+          <t>GB_GCA_002314675.1_9.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.21995879588906e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.002258457288894479</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.9977415427109501</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.9977415427109501</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_8.fasta</t>
+          <t>GB_GCA_002314675.1_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -12318,7 +12318,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_0.fasta</t>
+          <t>GB_GCA_002314675.1_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -12360,7 +12360,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_14.fasta</t>
+          <t>GB_GCA_002314675.1_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -12402,7 +12402,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_4.fasta</t>
+          <t>GB_GCA_002314675.1_5.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12444,7 +12444,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_5.fasta</t>
+          <t>GB_GCA_002314675.1_7.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -12486,7 +12486,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_7.fasta</t>
+          <t>GB_GCA_002314675.1_10.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12528,7 +12528,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_17.fasta</t>
+          <t>GB_GCA_002314675.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -12570,7 +12570,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_18.fasta</t>
+          <t>GB_GCA_002314675.1_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -12612,7 +12612,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_9.fasta</t>
+          <t>GB_GCA_002314675.1_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -12654,38 +12654,38 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_11.fasta</t>
+          <t>GB_GCA_002314675.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.220446049250106e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.268896951232735e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.9999999999993178</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.9999999999993178</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -12696,38 +12696,38 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_15.fasta</t>
+          <t>GB_GCA_002314675.1_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.07697669335913089</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.07697669335913097</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.07697669335913099</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.1960239255085531</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.2651392209775306</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.2651392209775306</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -12738,38 +12738,38 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_16.fasta</t>
+          <t>GB_GCA_002314675.1_3.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.07742310459398397</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.07742310459398394</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.07742310459398392</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.07742310459398404</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.07742310459398404</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.1965043103433705</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.2615339574987418</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.2615339574987418</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002314675.1_19.fasta</t>
+          <t>GB_GCA_002314675.1_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
